--- a/Texts/Сюжетные сцены/Глава 9.xlsx
+++ b/Texts/Сюжетные сцены/Глава 9.xlsx
@@ -2952,12 +2952,6 @@
     <t xml:space="preserve"> Да! Но [hero] потеряла\nвсю свою память о времени, когда она была\nчеловеком.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Поэтому, мы хотели\nспросить...[K] [CS:N]Юкси[CR], встречал ли ты\n[hero] ранее?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> И стирал ли ты память?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Это вообще случалось?[K]\nПриходил ли к тебе человек?</t>
   </si>
   <si>
@@ -3093,12 +3087,6 @@
     <t xml:space="preserve"> Äà! Îï [hero] ðïóåñÿìà\nâòý òâïý ðàíÿóû ï âñåíåîé, ëïãäà ïîà áúìà\nœåìïâåëïí.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ðïüóïíô, íú öïóåìé\nòðñïòéóû...[K] [CS:N]Ýëòé[CR], âòóñåœàì ìé óú\n[hero] ñàîåå?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> É òóéñàì ìé óú ðàíÿóû?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Üóï âïïáþå òìôœàìïòû?[K]\nÐñéöïäéì ìé ë óåáå œåìïâåë?</t>
   </si>
   <si>
@@ -3877,6 +3865,18 @@
   </si>
   <si>
     <t>(É üóï œôâòóâï óñåâïãé...[K] Œóï ïîï\nèîàœéó?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И стирал ли ты его память?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, мы хотели\nспросить...[K] [CS:N]Юкси[CR], встречал ли ты здесь\nчеловека?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, íú öïóåìé\nòðñïòéóû...[K] [CS:N]Ýëòé[CR], âòóñåœàì ìé óú èäåòû\nœåìïâåëà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É òóéñàì ìé óú åãï ðàíÿóû?</t>
   </si>
 </sst>
 </file>
@@ -4630,7 +4630,7 @@
   <dimension ref="A1:H383"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F286" sqref="F286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8302,10 +8302,10 @@
         <v>707</v>
       </c>
       <c r="E218" s="24" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="F218" s="25" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9053,7 +9053,7 @@
         <v>956</v>
       </c>
       <c r="F263" s="25" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9069,7 +9069,7 @@
         <v>957</v>
       </c>
       <c r="F264" s="25" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9085,7 +9085,7 @@
         <v>958</v>
       </c>
       <c r="F265" s="25" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9103,7 +9103,7 @@
         <v>959</v>
       </c>
       <c r="F266" s="25" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -9119,7 +9119,7 @@
         <v>960</v>
       </c>
       <c r="F267" s="25" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -9153,7 +9153,7 @@
         <v>961</v>
       </c>
       <c r="F269" s="25" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9169,7 +9169,7 @@
         <v>962</v>
       </c>
       <c r="F270" s="25" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9185,7 +9185,7 @@
         <v>963</v>
       </c>
       <c r="F271" s="25" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9201,7 +9201,7 @@
         <v>964</v>
       </c>
       <c r="F272" s="25" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9217,7 +9217,7 @@
         <v>965</v>
       </c>
       <c r="F273" s="25" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9233,7 +9233,7 @@
         <v>966</v>
       </c>
       <c r="F274" s="25" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -9249,7 +9249,7 @@
         <v>967</v>
       </c>
       <c r="F275" s="25" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -9265,7 +9265,7 @@
         <v>968</v>
       </c>
       <c r="F276" s="25" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9281,7 +9281,7 @@
         <v>969</v>
       </c>
       <c r="F277" s="25" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9297,7 +9297,7 @@
         <v>970</v>
       </c>
       <c r="F278" s="25" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9313,7 +9313,7 @@
         <v>971</v>
       </c>
       <c r="F279" s="25" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9329,7 +9329,7 @@
         <v>972</v>
       </c>
       <c r="F280" s="25" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9345,7 +9345,7 @@
         <v>973</v>
       </c>
       <c r="F281" s="25" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -9363,7 +9363,7 @@
         <v>974</v>
       </c>
       <c r="F282" s="25" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9379,7 +9379,7 @@
         <v>975</v>
       </c>
       <c r="F283" s="25" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9395,7 +9395,7 @@
         <v>976</v>
       </c>
       <c r="F284" s="25" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9408,10 +9408,10 @@
         <v>926</v>
       </c>
       <c r="E285" s="24" t="s">
-        <v>977</v>
+        <v>1283</v>
       </c>
       <c r="F285" s="25" t="s">
-        <v>1024</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9424,10 +9424,10 @@
         <v>928</v>
       </c>
       <c r="E286" s="24" t="s">
-        <v>978</v>
+        <v>1282</v>
       </c>
       <c r="F286" s="25" t="s">
-        <v>1025</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9440,10 +9440,10 @@
         <v>930</v>
       </c>
       <c r="E287" s="24" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F287" s="25" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9456,10 +9456,10 @@
         <v>932</v>
       </c>
       <c r="E288" s="24" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F288" s="25" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9474,10 +9474,10 @@
         <v>934</v>
       </c>
       <c r="E289" s="24" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F289" s="25" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9490,10 +9490,10 @@
         <v>935</v>
       </c>
       <c r="E290" s="24" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F290" s="25" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9506,10 +9506,10 @@
         <v>936</v>
       </c>
       <c r="E291" s="24" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F291" s="25" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9522,10 +9522,10 @@
         <v>937</v>
       </c>
       <c r="E292" s="24" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F292" s="25" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9538,10 +9538,10 @@
         <v>937</v>
       </c>
       <c r="E293" s="24" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F293" s="25" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9554,10 +9554,10 @@
         <v>938</v>
       </c>
       <c r="E294" s="24" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F294" s="25" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9570,10 +9570,10 @@
         <v>938</v>
       </c>
       <c r="E295" s="24" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F295" s="25" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -9586,10 +9586,10 @@
         <v>939</v>
       </c>
       <c r="E296" s="24" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F296" s="25" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -9602,10 +9602,10 @@
         <v>940</v>
       </c>
       <c r="E297" s="24" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F297" s="25" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9618,10 +9618,10 @@
         <v>942</v>
       </c>
       <c r="E298" s="24" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F298" s="25" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9634,10 +9634,10 @@
         <v>942</v>
       </c>
       <c r="E299" s="24" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F299" s="25" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -9650,10 +9650,10 @@
         <v>943</v>
       </c>
       <c r="E300" s="24" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F300" s="25" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -9666,10 +9666,10 @@
         <v>943</v>
       </c>
       <c r="E301" s="24" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F301" s="25" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9684,10 +9684,10 @@
         <v>944</v>
       </c>
       <c r="E302" s="24" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F302" s="25" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -9700,10 +9700,10 @@
         <v>945</v>
       </c>
       <c r="E303" s="24" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F303" s="25" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -9716,10 +9716,10 @@
         <v>946</v>
       </c>
       <c r="E304" s="24" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F304" s="25" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -9734,10 +9734,10 @@
         <v>948</v>
       </c>
       <c r="E305" s="24" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F305" s="25" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -9752,10 +9752,10 @@
         <v>949</v>
       </c>
       <c r="E306" s="24" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F306" s="25" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -9768,10 +9768,10 @@
         <v>950</v>
       </c>
       <c r="E307" s="24" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F307" s="25" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9786,10 +9786,10 @@
         <v>952</v>
       </c>
       <c r="E308" s="24" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F308" s="25" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -9802,10 +9802,10 @@
         <v>954</v>
       </c>
       <c r="E309" s="24" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F309" s="25" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -9818,30 +9818,30 @@
         <v>955</v>
       </c>
       <c r="E310" s="34" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F310" s="35" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A311" s="51" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B311" s="18" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C311" s="18">
         <v>45</v>
       </c>
       <c r="D311" s="19" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E311" s="19" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="F311" s="20" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9853,13 +9853,13 @@
         <v>50</v>
       </c>
       <c r="D312" s="24" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="E312" s="24" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="F312" s="25" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -9871,13 +9871,13 @@
         <v>67</v>
       </c>
       <c r="D313" s="24" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E313" s="24" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="F313" s="25" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -9887,13 +9887,13 @@
         <v>72</v>
       </c>
       <c r="D314" s="24" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="E314" s="24" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="F314" s="25" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -9905,13 +9905,13 @@
         <v>262</v>
       </c>
       <c r="D315" s="24" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="E315" s="24" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F315" s="25" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9923,13 +9923,13 @@
         <v>274</v>
       </c>
       <c r="D316" s="24" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="E316" s="24" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="F316" s="25" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -9941,13 +9941,13 @@
         <v>284</v>
       </c>
       <c r="D317" s="24" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="E317" s="24" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F317" s="25" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -9959,13 +9959,13 @@
         <v>297</v>
       </c>
       <c r="D318" s="24" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="E318" s="24" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="F318" s="25" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -9977,13 +9977,13 @@
         <v>310</v>
       </c>
       <c r="D319" s="24" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="E319" s="24" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="F319" s="25" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9995,13 +9995,13 @@
         <v>332</v>
       </c>
       <c r="D320" s="24" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="E320" s="24" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="F320" s="25" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -10013,13 +10013,13 @@
         <v>380</v>
       </c>
       <c r="D321" s="24" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="E321" s="24" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="F321" s="25" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10031,13 +10031,13 @@
         <v>389</v>
       </c>
       <c r="D322" s="24" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="E322" s="24" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F322" s="25" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -10047,13 +10047,13 @@
         <v>398</v>
       </c>
       <c r="D323" s="24" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E323" s="24" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F323" s="25" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -10063,31 +10063,31 @@
         <v>401</v>
       </c>
       <c r="D324" s="24" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="E324" s="24" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="F324" s="25" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="54" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B325" s="15"/>
       <c r="C325" s="15">
         <v>425</v>
       </c>
       <c r="D325" s="16" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="F325" s="28" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -10095,19 +10095,19 @@
         <v>447</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="C326" s="23">
         <v>14</v>
       </c>
       <c r="D326" s="24" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="E326" s="24" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F326" s="25" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -10119,13 +10119,13 @@
         <v>19</v>
       </c>
       <c r="D327" s="24" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="E327" s="24" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="F327" s="25" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10137,13 +10137,13 @@
         <v>24</v>
       </c>
       <c r="D328" s="24" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="E328" s="24" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="F328" s="25" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -10153,13 +10153,13 @@
         <v>27</v>
       </c>
       <c r="D329" s="24" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="E329" s="24" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F329" s="25" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10169,13 +10169,13 @@
         <v>30</v>
       </c>
       <c r="D330" s="24" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="E330" s="24" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="F330" s="25" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10185,13 +10185,13 @@
         <v>33</v>
       </c>
       <c r="D331" s="24" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="E331" s="24" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="F331" s="25" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10201,13 +10201,13 @@
         <v>36</v>
       </c>
       <c r="D332" s="24" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E332" s="24" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="F332" s="25" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -10219,13 +10219,13 @@
         <v>41</v>
       </c>
       <c r="D333" s="24" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E333" s="24" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="F333" s="25" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10235,63 +10235,63 @@
         <v>44</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="F334" s="28" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A335" s="21"/>
       <c r="B335" s="22" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="C335" s="23" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="D335" s="24" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E335" s="24" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F335" s="25" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A336" s="21"/>
       <c r="B336" s="22"/>
       <c r="C336" s="23" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D336" s="24" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E336" s="24" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="F336" s="25" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="21"/>
       <c r="B337" s="23"/>
       <c r="C337" s="23" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D337" s="24" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="E337" s="24" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="F337" s="25" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -10301,29 +10301,29 @@
         <v>74</v>
       </c>
       <c r="D338" s="24" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="E338" s="24" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="F338" s="25" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A339" s="21"/>
       <c r="B339" s="23"/>
       <c r="C339" s="23" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="D339" s="24" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="E339" s="24" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="F339" s="25" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10333,29 +10333,29 @@
         <v>88</v>
       </c>
       <c r="D340" s="24" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="E340" s="24" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="F340" s="25" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="21"/>
       <c r="B341" s="23"/>
       <c r="C341" s="23" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="D341" s="24" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="E341" s="24" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="F341" s="25" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10365,13 +10365,13 @@
         <v>102</v>
       </c>
       <c r="D342" s="24" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E342" s="24" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="F342" s="25" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -10381,13 +10381,13 @@
         <v>110</v>
       </c>
       <c r="D343" s="24" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="E343" s="24" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="F343" s="25" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -10397,13 +10397,13 @@
         <v>114</v>
       </c>
       <c r="D344" s="24" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="E344" s="24" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="F344" s="25" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10413,13 +10413,13 @@
         <v>120</v>
       </c>
       <c r="D345" s="24" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="E345" s="24" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="F345" s="25" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10429,111 +10429,111 @@
         <v>124</v>
       </c>
       <c r="D346" s="24" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="E346" s="24" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="F346" s="25" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A347" s="47"/>
       <c r="B347" s="46"/>
       <c r="C347" s="23" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="D347" s="24" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="E347" s="24" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="F347" s="25" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A348" s="47"/>
       <c r="B348" s="46"/>
       <c r="C348" s="23" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="D348" s="24" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="E348" s="24" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="F348" s="25" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="47"/>
       <c r="B349" s="46"/>
       <c r="C349" s="23" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="D349" s="24" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="E349" s="24" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="F349" s="25" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="47"/>
       <c r="B350" s="46"/>
       <c r="C350" s="23" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="D350" s="24" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="E350" s="24" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="F350" s="25" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="57"/>
       <c r="B351" s="56"/>
       <c r="C351" s="15" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D351" s="16" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="F351" s="28" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A352" s="59"/>
       <c r="B352" s="60" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C352" s="18" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D352" s="19" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E352" s="19" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F352" s="20" t="s">
         <v>1279</v>
-      </c>
-      <c r="D352" s="19" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E352" s="19" t="s">
-        <v>1280</v>
-      </c>
-      <c r="F352" s="20" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10543,13 +10543,13 @@
         <v>860</v>
       </c>
       <c r="D353" s="24" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="E353" s="24" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="F353" s="25" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -10559,13 +10559,13 @@
         <v>862</v>
       </c>
       <c r="D354" s="34" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="E354" s="34" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="F354" s="35" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -10573,19 +10573,19 @@
         <v>129</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="C355" s="23">
         <v>13</v>
       </c>
       <c r="D355" s="24" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="E355" s="24" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="F355" s="25" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10595,13 +10595,13 @@
         <v>16</v>
       </c>
       <c r="D356" s="24" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="E356" s="24" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="F356" s="25" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10613,13 +10613,13 @@
         <v>21</v>
       </c>
       <c r="D357" s="24" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="E357" s="24" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="F357" s="25" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -10629,13 +10629,13 @@
         <v>24</v>
       </c>
       <c r="D358" s="24" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="E358" s="24" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="F358" s="25" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10645,13 +10645,13 @@
         <v>27</v>
       </c>
       <c r="D359" s="24" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="E359" s="24" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="F359" s="25" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10663,13 +10663,13 @@
         <v>36</v>
       </c>
       <c r="D360" s="24" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="E360" s="24" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="F360" s="25" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10679,13 +10679,13 @@
         <v>39</v>
       </c>
       <c r="D361" s="24" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="E361" s="24" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F361" s="25" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10695,13 +10695,13 @@
         <v>42</v>
       </c>
       <c r="D362" s="24" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="E362" s="24" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="F362" s="25" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10711,13 +10711,13 @@
         <v>45</v>
       </c>
       <c r="D363" s="24" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="E363" s="24" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="F363" s="25" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -10729,13 +10729,13 @@
         <v>50</v>
       </c>
       <c r="D364" s="24" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="E364" s="24" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="F364" s="25" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -10747,13 +10747,13 @@
         <v>55</v>
       </c>
       <c r="D365" s="24" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="E365" s="24" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="F365" s="25" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -10763,13 +10763,13 @@
         <v>63</v>
       </c>
       <c r="D366" s="24" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="E366" s="24" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="F366" s="25" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -10781,13 +10781,13 @@
         <v>72</v>
       </c>
       <c r="D367" s="24" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="E367" s="24" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="F367" s="25" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10797,31 +10797,31 @@
         <v>112</v>
       </c>
       <c r="D368" s="24" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="E368" s="24" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="F368" s="25" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="41" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B369" s="23"/>
       <c r="C369" s="23">
         <v>192</v>
       </c>
       <c r="D369" s="24" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="E369" s="24" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="F369" s="25" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -10831,13 +10831,13 @@
         <v>199</v>
       </c>
       <c r="D370" s="24" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="E370" s="24" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="F370" s="25" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10847,13 +10847,13 @@
         <v>202</v>
       </c>
       <c r="D371" s="24" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="E371" s="24" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="F371" s="25" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10863,13 +10863,13 @@
         <v>205</v>
       </c>
       <c r="D372" s="24" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="E372" s="24" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="F372" s="25" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10879,13 +10879,13 @@
         <v>208</v>
       </c>
       <c r="D373" s="24" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="E373" s="24" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="F373" s="25" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10895,13 +10895,13 @@
         <v>211</v>
       </c>
       <c r="D374" s="24" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="E374" s="24" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="F374" s="25" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10911,13 +10911,13 @@
         <v>214</v>
       </c>
       <c r="D375" s="24" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E375" s="24" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="F375" s="25" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10927,13 +10927,13 @@
         <v>227</v>
       </c>
       <c r="D376" s="24" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="E376" s="24" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="F376" s="25" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10943,13 +10943,13 @@
         <v>240</v>
       </c>
       <c r="D377" s="24" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="E377" s="24" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="F377" s="25" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10959,13 +10959,13 @@
         <v>245</v>
       </c>
       <c r="D378" s="24" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="E378" s="24" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="F378" s="25" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10975,13 +10975,13 @@
         <v>248</v>
       </c>
       <c r="D379" s="24" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="E379" s="24" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="F379" s="25" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10991,13 +10991,13 @@
         <v>251</v>
       </c>
       <c r="D380" s="24" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="E380" s="24" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="F380" s="25" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11007,13 +11007,13 @@
         <v>263</v>
       </c>
       <c r="D381" s="24" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="E381" s="24" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="F381" s="25" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11023,13 +11023,13 @@
         <v>266</v>
       </c>
       <c r="D382" s="24" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="E382" s="24" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="F382" s="25" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -11039,13 +11039,13 @@
         <v>269</v>
       </c>
       <c r="D383" s="34" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="E383" s="34" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="F383" s="35" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Сюжетные сцены/Глава 9.xlsx
+++ b/Texts/Сюжетные сцены/Глава 9.xlsx
@@ -882,9 +882,6 @@
     <t>(Вернее, кем я был... До того, как\nпотерял свою память?)</t>
   </si>
   <si>
-    <t>(Вернее, кем я была... До того, как\nпотерял свою память?)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> А?[K] Что такое, [hero]?</t>
   </si>
   <si>
@@ -939,9 +936,6 @@
     <t xml:space="preserve"> Интересно, каким ты был,\nпрежде чем ты потерял память,\n[hero]...</t>
   </si>
   <si>
-    <t xml:space="preserve"> Интересно, каким ты была,\nпрежде чем ты потеряла память,\n[hero]...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Возможно [CS:N]Юкси[CR] сможет\nответить на этот вопрос.</t>
   </si>
   <si>
@@ -996,9 +990,6 @@
     <t>(Âåñîåå, ëåí ÿ áúì... Äï óïãï, ëàë\nðïóåñÿì òâïý ðàíÿóû?)</t>
   </si>
   <si>
-    <t>(Âåñîåå, ëåí ÿ áúìà... Äï óïãï, ëàë\nðïóåñÿì òâïý ðàíÿóû?)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> À?[K] Œóï óàëïå, [hero]?</t>
   </si>
   <si>
@@ -1053,9 +1044,6 @@
     <t xml:space="preserve"> Éîóåñåòîï, ëàëéí óú áúì,\nðñåçäå œåí óú ðïóåñÿì ðàíÿóû,\n[hero]...</t>
   </si>
   <si>
-    <t xml:space="preserve"> Éîóåñåòîï, ëàëéí óú áúìà,\nðñåçäå œåí óú ðïóåñÿìà ðàíÿóû,\n[hero]...</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Âïèíïçîï [CS:N]Ýëòé[CR] òíïçåó\nïóâåóéóû îà üóïó âïðñïò.</t>
   </si>
   <si>
@@ -1956,9 +1944,6 @@
     <t xml:space="preserve"> Ух... Мне страшно!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Но мне нужно быть храбрее!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> И я смирюсь с этим!</t>
   </si>
   <si>
@@ -2004,9 +1989,6 @@
     <t xml:space="preserve"> Ôö... Íîå òóñàšîï!</t>
   </si>
   <si>
-    <t xml:space="preserve"> Îï íîå îôçîï áúóû öñàáñåå!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> É ÿ òíéñýòû ò üóéí!</t>
   </si>
   <si>
@@ -3877,6 +3859,24 @@
   </si>
   <si>
     <t xml:space="preserve"> É òóéñàì ìé óú åãï ðàíÿóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но нам нужно быть храбрее!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï îàí îôçîï áúóû öñàáñåå!</t>
+  </si>
+  <si>
+    <t>(Вернее, кем я была... До того, как\nпотеряла свою память?)</t>
+  </si>
+  <si>
+    <t>(Âåñîåå, ëåí ÿ áúìà... Äï óïãï, ëàë\nðïóåñÿìà òâïý ðàíÿóû?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Интересно, какой ты была,\nпрежде чем ты потеряла память,\n[hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éîóåñåòîï, ëàëïê óú áúìà,\nðñåçäå œåí óú ðïóåñÿìà ðàíÿóû,\n[hero]...</t>
   </si>
 </sst>
 </file>
@@ -4629,8 +4629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H383"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F286" sqref="F286"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5659,7 +5659,7 @@
     <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="44"/>
       <c r="B60" s="23" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C60" s="23">
         <v>15</v>
@@ -5671,7 +5671,7 @@
         <v>271</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -5687,7 +5687,7 @@
         <v>272</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -5703,7 +5703,7 @@
         <v>273</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -5719,7 +5719,7 @@
         <v>274</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -5735,7 +5735,7 @@
         <v>275</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -5751,7 +5751,7 @@
         <v>276</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -5767,7 +5767,7 @@
         <v>277</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -5783,7 +5783,7 @@
         <v>278</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -5799,7 +5799,7 @@
         <v>279</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -5815,7 +5815,7 @@
         <v>280</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -5831,7 +5831,7 @@
         <v>281</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -5847,7 +5847,7 @@
         <v>282</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -5863,7 +5863,7 @@
         <v>283</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -5879,7 +5879,7 @@
         <v>284</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -5895,7 +5895,7 @@
         <v>285</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -5911,7 +5911,7 @@
         <v>286</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -5924,10 +5924,10 @@
         <v>238</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>287</v>
+        <v>1282</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>325</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -5937,13 +5937,13 @@
         <v>227</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -5953,13 +5953,13 @@
         <v>231</v>
       </c>
       <c r="D78" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="F78" s="25" t="s">
         <v>347</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -5972,10 +5972,10 @@
         <v>239</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -5988,10 +5988,10 @@
         <v>241</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -6004,10 +6004,10 @@
         <v>243</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6020,10 +6020,10 @@
         <v>245</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -6036,10 +6036,10 @@
         <v>246</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -6052,10 +6052,10 @@
         <v>248</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6068,10 +6068,10 @@
         <v>250</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6084,10 +6084,10 @@
         <v>252</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -6100,10 +6100,10 @@
         <v>254</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6116,10 +6116,10 @@
         <v>256</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6132,10 +6132,10 @@
         <v>256</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6148,10 +6148,10 @@
         <v>257</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6164,10 +6164,10 @@
         <v>257</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6180,10 +6180,10 @@
         <v>258</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -6196,10 +6196,10 @@
         <v>260</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6212,10 +6212,10 @@
         <v>262</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6228,10 +6228,10 @@
         <v>264</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6244,10 +6244,10 @@
         <v>266</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6260,10 +6260,10 @@
         <v>266</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>306</v>
+        <v>1284</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>344</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6276,10 +6276,10 @@
         <v>267</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6292,30 +6292,30 @@
         <v>269</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F99" s="35" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="36" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B100" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="E100" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="C100" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="D100" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>363</v>
-      </c>
       <c r="F100" s="20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -6325,13 +6325,13 @@
         <v>57</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -6341,13 +6341,13 @@
         <v>61</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -6357,13 +6357,13 @@
         <v>65</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6373,13 +6373,13 @@
         <v>72</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6389,13 +6389,13 @@
         <v>76</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6405,97 +6405,97 @@
         <v>80</v>
       </c>
       <c r="D106" s="34" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F106" s="35" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="36" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>184</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="23" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="23" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="23" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="23" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F111" s="25" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -6505,29 +6505,29 @@
         <v>119</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="23" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6537,13 +6537,13 @@
         <v>192</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -6553,13 +6553,13 @@
         <v>174</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6569,13 +6569,13 @@
         <v>178</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F116" s="25" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6585,13 +6585,13 @@
         <v>182</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -6604,134 +6604,134 @@
         <v>186</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F118" s="25" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="23" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F119" s="25" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="31"/>
       <c r="B120" s="32"/>
       <c r="C120" s="38" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D120" s="34" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E120" s="34" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F120" s="35" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="51" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C121" s="18">
         <v>32</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="41" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="23">
         <v>74</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E122" s="24" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="41" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="23">
         <v>89</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E123" s="24" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F123" s="25" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A124" s="41" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="23">
         <v>98</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F124" s="25" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B125" s="23"/>
       <c r="C125" s="23">
         <v>134</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6741,13 +6741,13 @@
         <v>137</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E126" s="24" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F126" s="25" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6757,13 +6757,13 @@
         <v>140</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E127" s="24" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6773,13 +6773,13 @@
         <v>143</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F128" s="25" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6789,13 +6789,13 @@
         <v>159</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F129" s="25" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6805,49 +6805,49 @@
         <v>162</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F130" s="25" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="41" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="23">
         <v>189</v>
       </c>
       <c r="D131" s="24" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F131" s="25" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="41" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="23">
         <v>195</v>
       </c>
       <c r="D132" s="24" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F132" s="25" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -6860,64 +6860,64 @@
         <v>186</v>
       </c>
       <c r="E133" s="24" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F133" s="25" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="41" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B134" s="23"/>
       <c r="C134" s="23">
         <v>231</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E134" s="24" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F134" s="25" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="41" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B135" s="23"/>
       <c r="C135" s="23">
         <v>236</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F135" s="25" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B136" s="23"/>
       <c r="C136" s="23">
         <v>250</v>
       </c>
       <c r="D136" s="24" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E136" s="24" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F136" s="25" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -6927,31 +6927,31 @@
         <v>253</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E137" s="24" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F137" s="25" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="41" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B138" s="23"/>
       <c r="C138" s="23">
         <v>297</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E138" s="24" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F138" s="25" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6961,13 +6961,13 @@
         <v>306</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E139" s="24" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F139" s="25" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -6977,49 +6977,49 @@
         <v>315</v>
       </c>
       <c r="D140" s="24" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E140" s="24" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F140" s="25" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A141" s="41" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B141" s="23"/>
       <c r="C141" s="23">
         <v>324</v>
       </c>
       <c r="D141" s="24" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E141" s="24" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F141" s="25" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="41" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B142" s="23"/>
       <c r="C142" s="23">
         <v>333</v>
       </c>
       <c r="D142" s="24" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E142" s="24" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F142" s="25" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -7031,13 +7031,13 @@
         <v>394</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E143" s="24" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F143" s="25" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7049,13 +7049,13 @@
         <v>408</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E144" s="24" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F144" s="25" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -7067,13 +7067,13 @@
         <v>421</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E145" s="24" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F145" s="25" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7083,13 +7083,13 @@
         <v>424</v>
       </c>
       <c r="D146" s="24" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E146" s="24" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F146" s="25" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7101,13 +7101,13 @@
         <v>429</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E147" s="24" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -7117,13 +7117,13 @@
         <v>432</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E148" s="24" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -7135,13 +7135,13 @@
         <v>444</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E149" s="24" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -7153,13 +7153,13 @@
         <v>458</v>
       </c>
       <c r="D150" s="24" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E150" s="24" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7171,133 +7171,133 @@
         <v>471</v>
       </c>
       <c r="D151" s="34" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E151" s="34" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F151" s="35" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="17" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C152" s="18">
         <v>90</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F152" s="20" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="23" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D153" s="24" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E153" s="24" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="23" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D154" s="24" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E154" s="24" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F154" s="25" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="23" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D155" s="24" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E155" s="24" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F155" s="25" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="41" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B156" s="23"/>
       <c r="C156" s="23">
         <v>196</v>
       </c>
       <c r="D156" s="24" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E156" s="24" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F156" s="25" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="23" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D157" s="24" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E157" s="24" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F157" s="25" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="41" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B158" s="23"/>
       <c r="C158" s="23">
         <v>246</v>
       </c>
       <c r="D158" s="24" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E158" s="24" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7307,13 +7307,13 @@
         <v>249</v>
       </c>
       <c r="D159" s="24" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E159" s="24" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -7323,29 +7323,29 @@
         <v>252</v>
       </c>
       <c r="D160" s="24" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E160" s="24" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F160" s="25" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A161" s="21"/>
       <c r="B161" s="23"/>
       <c r="C161" s="23" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D161" s="24" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E161" s="24" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F161" s="25" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7355,31 +7355,31 @@
         <v>275</v>
       </c>
       <c r="D162" s="24" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E162" s="24" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F162" s="25" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A163" s="41" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B163" s="23"/>
       <c r="C163" s="23">
         <v>288</v>
       </c>
       <c r="D163" s="24" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E163" s="24" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F163" s="25" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7389,13 +7389,13 @@
         <v>291</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E164" s="24" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F164" s="25" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7405,103 +7405,103 @@
         <v>296</v>
       </c>
       <c r="D165" s="24" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E165" s="24" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F165" s="25" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="31"/>
       <c r="B166" s="32"/>
       <c r="C166" s="38" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D166" s="34" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E166" s="34" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F166" s="35" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A167" s="51" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C167" s="18">
         <v>62</v>
       </c>
       <c r="D167" s="19" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E167" s="19" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F167" s="20" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="41" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B168" s="23"/>
       <c r="C168" s="23">
         <v>67</v>
       </c>
       <c r="D168" s="24" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="E168" s="24" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F168" s="25" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="41" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B169" s="23"/>
       <c r="C169" s="23">
         <v>76</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E169" s="24" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F169" s="25" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B170" s="23"/>
       <c r="C170" s="23">
         <v>128</v>
       </c>
       <c r="D170" s="24" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E170" s="24" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="F170" s="25" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7511,31 +7511,31 @@
         <v>131</v>
       </c>
       <c r="D171" s="24" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E171" s="24" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F171" s="25" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A172" s="41" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B172" s="23"/>
       <c r="C172" s="23">
         <v>134</v>
       </c>
       <c r="D172" s="24" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E172" s="24" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F172" s="25" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7545,49 +7545,49 @@
         <v>140</v>
       </c>
       <c r="D173" s="24" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E173" s="24" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F173" s="25" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A174" s="41" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B174" s="23"/>
       <c r="C174" s="23">
         <v>144</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E174" s="24" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F174" s="25" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="41" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B175" s="23"/>
       <c r="C175" s="23">
         <v>149</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E175" s="24" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F175" s="25" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -7597,31 +7597,31 @@
         <v>154</v>
       </c>
       <c r="D176" s="24" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E176" s="24" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F176" s="25" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A177" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B177" s="23"/>
       <c r="C177" s="23">
         <v>157</v>
       </c>
       <c r="D177" s="24" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E177" s="24" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F177" s="25" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7631,69 +7631,69 @@
         <v>162</v>
       </c>
       <c r="D178" s="34" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E178" s="34" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F178" s="35" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="51" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C179" s="18">
         <v>16</v>
       </c>
       <c r="D179" s="19" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E179" s="19" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F179" s="20" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B180" s="23"/>
       <c r="C180" s="23">
         <v>19</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E180" s="24" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="F180" s="25" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A181" s="41" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B181" s="23"/>
       <c r="C181" s="23">
         <v>24</v>
       </c>
       <c r="D181" s="24" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E181" s="24" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F181" s="25" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7703,13 +7703,13 @@
         <v>28</v>
       </c>
       <c r="D182" s="24" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E182" s="24" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F182" s="25" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7719,13 +7719,13 @@
         <v>31</v>
       </c>
       <c r="D183" s="24" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E183" s="24" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F183" s="25" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7735,31 +7735,31 @@
         <v>34</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E184" s="24" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F184" s="25" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="52" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B185" s="23"/>
       <c r="C185" s="23">
         <v>64</v>
       </c>
       <c r="D185" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E185" s="24" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F185" s="25" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -7769,13 +7769,13 @@
         <v>81</v>
       </c>
       <c r="D186" s="24" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E186" s="24" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F186" s="25" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -7785,13 +7785,13 @@
         <v>85</v>
       </c>
       <c r="D187" s="24" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E187" s="24" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F187" s="25" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -7801,45 +7801,45 @@
         <v>89</v>
       </c>
       <c r="D188" s="24" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E188" s="24" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="F188" s="25" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="21"/>
       <c r="B189" s="22"/>
       <c r="C189" s="23" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D189" s="24" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E189" s="24" t="s">
-        <v>645</v>
+        <v>1280</v>
       </c>
       <c r="F189" s="25" t="s">
-        <v>661</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="21"/>
       <c r="B190" s="22"/>
       <c r="C190" s="23" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E190" s="24" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F190" s="25" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -7849,13 +7849,13 @@
         <v>137</v>
       </c>
       <c r="D191" s="24" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E191" s="24" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F191" s="25" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -7865,13 +7865,13 @@
         <v>141</v>
       </c>
       <c r="D192" s="24" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E192" s="24" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F192" s="25" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -7881,69 +7881,69 @@
         <v>145</v>
       </c>
       <c r="D193" s="24" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E193" s="24" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F193" s="25" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="53" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B194" s="38"/>
       <c r="C194" s="38">
         <v>151</v>
       </c>
       <c r="D194" s="34" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E194" s="34" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F194" s="35" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="51" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C195" s="18">
         <v>80</v>
       </c>
       <c r="D195" s="19" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E195" s="19" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F195" s="20" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="52" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B196" s="23"/>
       <c r="C196" s="23">
         <v>90</v>
       </c>
       <c r="D196" s="24" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E196" s="24" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F196" s="25" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7953,13 +7953,13 @@
         <v>93</v>
       </c>
       <c r="D197" s="24" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E197" s="24" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F197" s="25" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7969,99 +7969,99 @@
         <v>96</v>
       </c>
       <c r="D198" s="34" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E198" s="34" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F198" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="51" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C199" s="18">
         <v>47</v>
       </c>
       <c r="D199" s="19" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E199" s="19" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F199" s="20" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="41" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B200" s="23"/>
       <c r="C200" s="23">
         <v>53</v>
       </c>
       <c r="D200" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E200" s="24" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F200" s="25" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A201" s="21"/>
       <c r="B201" s="22"/>
       <c r="C201" s="23" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D201" s="24" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E201" s="24" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F201" s="25" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="21"/>
       <c r="B202" s="22"/>
       <c r="C202" s="23" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D202" s="24" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E202" s="24" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F202" s="25" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="21"/>
       <c r="B203" s="22"/>
       <c r="C203" s="23" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D203" s="24" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E203" s="24" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="F203" s="25" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8071,13 +8071,13 @@
         <v>183</v>
       </c>
       <c r="D204" s="24" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E204" s="24" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="F204" s="25" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8087,13 +8087,13 @@
         <v>187</v>
       </c>
       <c r="D205" s="24" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E205" s="24" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F205" s="25" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -8103,31 +8103,31 @@
         <v>191</v>
       </c>
       <c r="D206" s="24" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E206" s="24" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="F206" s="25" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B207" s="23"/>
       <c r="C207" s="23">
         <v>197</v>
       </c>
       <c r="D207" s="24" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E207" s="24" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F207" s="25" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -8137,13 +8137,13 @@
         <v>200</v>
       </c>
       <c r="D208" s="24" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E208" s="24" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="F208" s="25" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8153,29 +8153,29 @@
         <v>203</v>
       </c>
       <c r="D209" s="24" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E209" s="24" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F209" s="25" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="21"/>
       <c r="B210" s="23"/>
       <c r="C210" s="23" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D210" s="24" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E210" s="24" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="F210" s="25" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -8185,31 +8185,31 @@
         <v>227</v>
       </c>
       <c r="D211" s="24" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="E211" s="24" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F211" s="25" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A212" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B212" s="23"/>
       <c r="C212" s="23">
         <v>253</v>
       </c>
       <c r="D212" s="24" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E212" s="24" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F212" s="25" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -8219,13 +8219,13 @@
         <v>256</v>
       </c>
       <c r="D213" s="24" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E213" s="24" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F213" s="25" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -8235,13 +8235,13 @@
         <v>271</v>
       </c>
       <c r="D214" s="24" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="E214" s="24" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F214" s="25" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -8251,13 +8251,13 @@
         <v>275</v>
       </c>
       <c r="D215" s="24" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="E215" s="24" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F215" s="25" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -8267,45 +8267,45 @@
         <v>279</v>
       </c>
       <c r="D216" s="24" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="E216" s="24" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F216" s="25" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A217" s="21"/>
       <c r="B217" s="22"/>
       <c r="C217" s="23" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="D217" s="24" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E217" s="24" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F217" s="25" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A218" s="21"/>
       <c r="B218" s="23"/>
       <c r="C218" s="23" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D218" s="24" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="E218" s="24" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="F218" s="25" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8315,145 +8315,145 @@
         <v>307</v>
       </c>
       <c r="D219" s="24" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="E219" s="24" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F219" s="25" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B220" s="23"/>
       <c r="C220" s="23">
         <v>313</v>
       </c>
       <c r="D220" s="24" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E220" s="24" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F220" s="25" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="21"/>
       <c r="B221" s="22"/>
       <c r="C221" s="23" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="D221" s="24" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E221" s="24" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F221" s="25" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A222" s="21"/>
       <c r="B222" s="22"/>
       <c r="C222" s="23" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D222" s="24" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E222" s="24" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="F222" s="25" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A223" s="21"/>
       <c r="B223" s="22"/>
       <c r="C223" s="23" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D223" s="24" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="E223" s="24" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F223" s="25" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A224" s="21"/>
       <c r="B224" s="22"/>
       <c r="C224" s="23" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D224" s="24" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E224" s="24" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="F224" s="25" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A225" s="21"/>
       <c r="B225" s="22"/>
       <c r="C225" s="23" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D225" s="24" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E225" s="24" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F225" s="25" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="21"/>
       <c r="B226" s="22"/>
       <c r="C226" s="23" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D226" s="24" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E226" s="24" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="F226" s="25" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B227" s="23"/>
       <c r="C227" s="23">
         <v>420</v>
       </c>
       <c r="D227" s="24" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E227" s="24" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F227" s="25" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -8463,13 +8463,13 @@
         <v>423</v>
       </c>
       <c r="D228" s="24" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E228" s="24" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="F228" s="25" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8479,13 +8479,13 @@
         <v>458</v>
       </c>
       <c r="D229" s="24" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E229" s="24" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F229" s="25" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8495,47 +8495,47 @@
         <v>461</v>
       </c>
       <c r="D230" s="24" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="E230" s="24" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="F230" s="25" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="21"/>
       <c r="B231" s="22"/>
       <c r="C231" s="23" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E231" s="24" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F231" s="25" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B232" s="23"/>
       <c r="C232" s="23">
         <v>489</v>
       </c>
       <c r="D232" s="24" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E232" s="24" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="F232" s="25" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8545,13 +8545,13 @@
         <v>492</v>
       </c>
       <c r="D233" s="24" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="E233" s="24" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F233" s="25" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8561,13 +8561,13 @@
         <v>495</v>
       </c>
       <c r="D234" s="24" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E234" s="24" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F234" s="25" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8577,51 +8577,51 @@
         <v>498</v>
       </c>
       <c r="D235" s="34" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E235" s="34" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F235" s="35" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A236" s="36" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B236" s="43" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C236" s="18" t="s">
         <v>184</v>
       </c>
       <c r="D236" s="19" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="E236" s="19" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="F236" s="20" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A237" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B237" s="23"/>
       <c r="C237" s="23">
         <v>56</v>
       </c>
       <c r="D237" s="24" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="E237" s="24" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F237" s="25" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8631,113 +8631,113 @@
         <v>65</v>
       </c>
       <c r="D238" s="24" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="E238" s="24" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="F238" s="25" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="27"/>
       <c r="B239" s="14"/>
       <c r="C239" s="15" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D239" s="16" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="F239" s="28" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A240" s="21"/>
       <c r="B240" s="22" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C240" s="23" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D240" s="24" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E240" s="24" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="F240" s="25" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A241" s="21"/>
       <c r="B241" s="22"/>
       <c r="C241" s="23" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D241" s="24" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="E241" s="24" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F241" s="25" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A242" s="21"/>
       <c r="B242" s="22"/>
       <c r="C242" s="23" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D242" s="24" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="E242" s="24" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="F242" s="25" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="21"/>
       <c r="B243" s="22"/>
       <c r="C243" s="23" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="D243" s="24" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E243" s="24" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="F243" s="25" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A244" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B244" s="23"/>
       <c r="C244" s="23">
         <v>76</v>
       </c>
       <c r="D244" s="24" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E244" s="24" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="F244" s="25" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8747,13 +8747,13 @@
         <v>79</v>
       </c>
       <c r="D245" s="24" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="E245" s="24" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="F245" s="25" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8763,45 +8763,45 @@
         <v>87</v>
       </c>
       <c r="D246" s="24" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E246" s="24" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="F246" s="25" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="21"/>
       <c r="B247" s="22"/>
       <c r="C247" s="23" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="D247" s="24" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E247" s="24" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F247" s="25" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A248" s="21"/>
       <c r="B248" s="22"/>
       <c r="C248" s="23" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="D248" s="24" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="E248" s="24" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="F248" s="25" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8811,113 +8811,113 @@
         <v>25</v>
       </c>
       <c r="D249" s="24" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="E249" s="24" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="F249" s="25" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="54" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B250" s="15"/>
       <c r="C250" s="15">
         <v>136</v>
       </c>
       <c r="D250" s="16" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="F250" s="28" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="47"/>
       <c r="B251" s="46" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C251" s="23" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D251" s="24" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="E251" s="24" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="F251" s="25" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A252" s="47"/>
       <c r="B252" s="46"/>
       <c r="C252" s="23" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D252" s="24" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E252" s="24" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="F252" s="25" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A253" s="47"/>
       <c r="B253" s="46"/>
       <c r="C253" s="23" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="E253" s="24" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="F253" s="25" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A254" s="47"/>
       <c r="B254" s="46"/>
       <c r="C254" s="23" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="D254" s="24" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E254" s="24" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="F254" s="25" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="21"/>
       <c r="B255" s="22"/>
       <c r="C255" s="23" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D255" s="24" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="E255" s="24" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="F255" s="25" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -8927,81 +8927,81 @@
         <v>105</v>
       </c>
       <c r="D256" s="24" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="E256" s="24" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="F256" s="25" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="21"/>
       <c r="B257" s="22"/>
       <c r="C257" s="23" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D257" s="24" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="E257" s="24" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="F257" s="25" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B258" s="23"/>
       <c r="C258" s="23">
         <v>114</v>
       </c>
       <c r="D258" s="24" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E258" s="24" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="F258" s="25" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A259" s="21"/>
       <c r="B259" s="22"/>
       <c r="C259" s="23" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D259" s="24" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="E259" s="24" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="F259" s="25" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B260" s="23"/>
       <c r="C260" s="23">
         <v>135</v>
       </c>
       <c r="D260" s="24" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E260" s="24" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="F260" s="25" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -9011,13 +9011,13 @@
         <v>138</v>
       </c>
       <c r="D261" s="24" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="E261" s="24" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="F261" s="25" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9027,33 +9027,33 @@
         <v>141</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="F262" s="28" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A263" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="C263" s="23">
         <v>26</v>
       </c>
       <c r="D263" s="24" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="E263" s="24" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="F263" s="25" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9063,47 +9063,47 @@
         <v>29</v>
       </c>
       <c r="D264" s="24" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="E264" s="24" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="F264" s="25" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A265" s="21"/>
       <c r="B265" s="22"/>
       <c r="C265" s="23" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="D265" s="24" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="E265" s="24" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="F265" s="25" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A266" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B266" s="23"/>
       <c r="C266" s="23">
         <v>58</v>
       </c>
       <c r="D266" s="24" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="E266" s="24" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="F266" s="25" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -9113,47 +9113,47 @@
         <v>61</v>
       </c>
       <c r="D267" s="24" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="E267" s="24" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F267" s="25" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="21"/>
       <c r="B268" s="22"/>
       <c r="C268" s="23" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="D268" s="24" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="E268" s="24" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="F268" s="25" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B269" s="23"/>
       <c r="C269" s="23">
         <v>133</v>
       </c>
       <c r="D269" s="24" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="E269" s="24" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="F269" s="25" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9163,13 +9163,13 @@
         <v>136</v>
       </c>
       <c r="D270" s="24" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="E270" s="24" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="F270" s="25" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9179,13 +9179,13 @@
         <v>139</v>
       </c>
       <c r="D271" s="24" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="E271" s="24" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="F271" s="25" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9195,13 +9195,13 @@
         <v>142</v>
       </c>
       <c r="D272" s="24" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="E272" s="24" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="F272" s="25" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9211,13 +9211,13 @@
         <v>145</v>
       </c>
       <c r="D273" s="24" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="E273" s="24" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="F273" s="25" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9227,13 +9227,13 @@
         <v>148</v>
       </c>
       <c r="D274" s="24" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="E274" s="24" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="F274" s="25" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -9243,45 +9243,45 @@
         <v>151</v>
       </c>
       <c r="D275" s="24" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="E275" s="24" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="F275" s="25" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="21"/>
       <c r="B276" s="22"/>
       <c r="C276" s="23" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="D276" s="24" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="E276" s="24" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="F276" s="25" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A277" s="21"/>
       <c r="B277" s="22"/>
       <c r="C277" s="23" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="D277" s="24" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="E277" s="24" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="F277" s="25" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9291,13 +9291,13 @@
         <v>216</v>
       </c>
       <c r="D278" s="24" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="E278" s="24" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="F278" s="25" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9307,13 +9307,13 @@
         <v>220</v>
       </c>
       <c r="D279" s="24" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="E279" s="24" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="F279" s="25" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9323,13 +9323,13 @@
         <v>231</v>
       </c>
       <c r="D280" s="24" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="E280" s="24" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="F280" s="25" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9339,31 +9339,31 @@
         <v>235</v>
       </c>
       <c r="D281" s="24" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="E281" s="24" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="F281" s="25" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B282" s="23"/>
       <c r="C282" s="23">
         <v>249</v>
       </c>
       <c r="D282" s="24" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="E282" s="24" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="F282" s="25" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9373,13 +9373,13 @@
         <v>256</v>
       </c>
       <c r="D283" s="24" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="E283" s="24" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="F283" s="25" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9389,95 +9389,95 @@
         <v>260</v>
       </c>
       <c r="D284" s="24" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="E284" s="24" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="F284" s="25" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A285" s="21"/>
       <c r="B285" s="22"/>
       <c r="C285" s="23" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="D285" s="24" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="E285" s="24" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="F285" s="25" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A286" s="21"/>
       <c r="B286" s="22"/>
       <c r="C286" s="23" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="D286" s="24" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="E286" s="24" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="F286" s="25" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A287" s="21"/>
       <c r="B287" s="22"/>
       <c r="C287" s="23" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="D287" s="24" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="E287" s="24" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="F287" s="25" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A288" s="21"/>
       <c r="B288" s="22"/>
       <c r="C288" s="23" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="D288" s="24" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="E288" s="24" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="F288" s="25" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A289" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B289" s="23"/>
       <c r="C289" s="23">
         <v>323</v>
       </c>
       <c r="D289" s="24" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="E289" s="24" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="F289" s="25" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9487,13 +9487,13 @@
         <v>326</v>
       </c>
       <c r="D290" s="24" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="E290" s="24" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="F290" s="25" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9503,13 +9503,13 @@
         <v>329</v>
       </c>
       <c r="D291" s="24" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="E291" s="24" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="F291" s="25" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9519,13 +9519,13 @@
         <v>339</v>
       </c>
       <c r="D292" s="24" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="E292" s="24" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="F292" s="25" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9535,13 +9535,13 @@
         <v>343</v>
       </c>
       <c r="D293" s="24" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="E293" s="24" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="F293" s="25" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9551,13 +9551,13 @@
         <v>354</v>
       </c>
       <c r="D294" s="24" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="E294" s="24" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="F294" s="25" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9567,13 +9567,13 @@
         <v>358</v>
       </c>
       <c r="D295" s="24" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="E295" s="24" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="F295" s="25" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -9583,29 +9583,29 @@
         <v>362</v>
       </c>
       <c r="D296" s="24" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="E296" s="24" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="F296" s="25" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="21"/>
       <c r="B297" s="22"/>
       <c r="C297" s="23" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="D297" s="24" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="E297" s="24" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="F297" s="25" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9615,13 +9615,13 @@
         <v>392</v>
       </c>
       <c r="D298" s="24" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="E298" s="24" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="F298" s="25" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9631,13 +9631,13 @@
         <v>396</v>
       </c>
       <c r="D299" s="24" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="E299" s="24" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F299" s="25" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -9647,13 +9647,13 @@
         <v>256</v>
       </c>
       <c r="D300" s="24" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="E300" s="24" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="F300" s="25" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -9663,13 +9663,13 @@
         <v>260</v>
       </c>
       <c r="D301" s="24" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="E301" s="24" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="F301" s="25" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9681,13 +9681,13 @@
         <v>414</v>
       </c>
       <c r="D302" s="24" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="E302" s="24" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="F302" s="25" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -9697,29 +9697,29 @@
         <v>450</v>
       </c>
       <c r="D303" s="24" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="E303" s="24" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="F303" s="25" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="21"/>
       <c r="B304" s="22"/>
       <c r="C304" s="23" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="D304" s="24" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="E304" s="24" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="F304" s="25" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -9731,47 +9731,47 @@
         <v>516</v>
       </c>
       <c r="D305" s="24" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E305" s="24" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="F305" s="25" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B306" s="23"/>
       <c r="C306" s="23">
         <v>521</v>
       </c>
       <c r="D306" s="24" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="E306" s="24" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="F306" s="25" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="21"/>
       <c r="B307" s="22"/>
       <c r="C307" s="23" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="D307" s="24" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="E307" s="24" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F307" s="25" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9780,16 +9780,16 @@
       </c>
       <c r="B308" s="23"/>
       <c r="C308" s="23" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="D308" s="24" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="E308" s="24" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="F308" s="25" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -9799,13 +9799,13 @@
         <v>616</v>
       </c>
       <c r="D309" s="24" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="E309" s="24" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="F309" s="25" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -9815,69 +9815,69 @@
         <v>633</v>
       </c>
       <c r="D310" s="34" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="E310" s="34" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F310" s="35" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A311" s="51" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="B311" s="18" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="C311" s="18">
         <v>45</v>
       </c>
       <c r="D311" s="19" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E311" s="19" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="F311" s="20" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A312" s="41" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B312" s="23"/>
       <c r="C312" s="23">
         <v>50</v>
       </c>
       <c r="D312" s="24" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="E312" s="24" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="F312" s="25" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B313" s="23"/>
       <c r="C313" s="23">
         <v>67</v>
       </c>
       <c r="D313" s="24" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="E313" s="24" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="F313" s="25" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -9887,103 +9887,103 @@
         <v>72</v>
       </c>
       <c r="D314" s="24" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E314" s="24" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="F314" s="25" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="41" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B315" s="23"/>
       <c r="C315" s="23">
         <v>262</v>
       </c>
       <c r="D315" s="24" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="E315" s="24" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="F315" s="25" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A316" s="41" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B316" s="23"/>
       <c r="C316" s="23">
         <v>274</v>
       </c>
       <c r="D316" s="24" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="E316" s="24" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="F316" s="25" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="41" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B317" s="23"/>
       <c r="C317" s="23">
         <v>284</v>
       </c>
       <c r="D317" s="24" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E317" s="24" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="F317" s="25" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="41" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B318" s="23"/>
       <c r="C318" s="23">
         <v>297</v>
       </c>
       <c r="D318" s="24" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="E318" s="24" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="F318" s="25" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B319" s="23"/>
       <c r="C319" s="23">
         <v>310</v>
       </c>
       <c r="D319" s="24" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E319" s="24" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="F319" s="25" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9995,31 +9995,31 @@
         <v>332</v>
       </c>
       <c r="D320" s="24" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="E320" s="24" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="F320" s="25" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="41" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B321" s="23"/>
       <c r="C321" s="23">
         <v>380</v>
       </c>
       <c r="D321" s="24" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="E321" s="24" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="F321" s="25" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10031,13 +10031,13 @@
         <v>389</v>
       </c>
       <c r="D322" s="24" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="E322" s="24" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="F322" s="25" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -10047,13 +10047,13 @@
         <v>398</v>
       </c>
       <c r="D323" s="24" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="E323" s="24" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="F323" s="25" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -10063,87 +10063,87 @@
         <v>401</v>
       </c>
       <c r="D324" s="24" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="E324" s="24" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="F324" s="25" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="54" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="B325" s="15"/>
       <c r="C325" s="15">
         <v>425</v>
       </c>
       <c r="D325" s="16" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="F325" s="28" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A326" s="41" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B326" s="23" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C326" s="23">
         <v>14</v>
       </c>
       <c r="D326" s="24" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="E326" s="24" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="F326" s="25" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="41" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B327" s="23"/>
       <c r="C327" s="23">
         <v>19</v>
       </c>
       <c r="D327" s="24" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="E327" s="24" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F327" s="25" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A328" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B328" s="23"/>
       <c r="C328" s="23">
         <v>24</v>
       </c>
       <c r="D328" s="24" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="E328" s="24" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F328" s="25" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -10153,13 +10153,13 @@
         <v>27</v>
       </c>
       <c r="D329" s="24" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E329" s="24" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F329" s="25" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10169,13 +10169,13 @@
         <v>30</v>
       </c>
       <c r="D330" s="24" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="E330" s="24" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="F330" s="25" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10185,13 +10185,13 @@
         <v>33</v>
       </c>
       <c r="D331" s="24" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="E331" s="24" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="F331" s="25" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10201,13 +10201,13 @@
         <v>36</v>
       </c>
       <c r="D332" s="24" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="E332" s="24" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="F332" s="25" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -10219,13 +10219,13 @@
         <v>41</v>
       </c>
       <c r="D333" s="24" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E333" s="24" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="F333" s="25" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10235,63 +10235,63 @@
         <v>44</v>
       </c>
       <c r="D334" s="16" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="F334" s="28" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A335" s="21"/>
       <c r="B335" s="22" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="C335" s="23" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="D335" s="24" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="E335" s="24" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="F335" s="25" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A336" s="21"/>
       <c r="B336" s="22"/>
       <c r="C336" s="23" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="D336" s="24" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="E336" s="24" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="F336" s="25" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="21"/>
       <c r="B337" s="23"/>
       <c r="C337" s="23" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="D337" s="24" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="E337" s="24" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="F337" s="25" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -10301,29 +10301,29 @@
         <v>74</v>
       </c>
       <c r="D338" s="24" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="E338" s="24" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="F338" s="25" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A339" s="21"/>
       <c r="B339" s="23"/>
       <c r="C339" s="23" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="D339" s="24" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="E339" s="24" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="F339" s="25" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10333,29 +10333,29 @@
         <v>88</v>
       </c>
       <c r="D340" s="24" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="E340" s="24" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="F340" s="25" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="21"/>
       <c r="B341" s="23"/>
       <c r="C341" s="23" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="D341" s="24" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="E341" s="24" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="F341" s="25" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10365,13 +10365,13 @@
         <v>102</v>
       </c>
       <c r="D342" s="24" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="E342" s="24" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="F342" s="25" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -10381,13 +10381,13 @@
         <v>110</v>
       </c>
       <c r="D343" s="24" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="E343" s="24" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="F343" s="25" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -10397,13 +10397,13 @@
         <v>114</v>
       </c>
       <c r="D344" s="24" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="E344" s="24" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="F344" s="25" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10413,13 +10413,13 @@
         <v>120</v>
       </c>
       <c r="D345" s="24" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="E345" s="24" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="F345" s="25" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10429,143 +10429,143 @@
         <v>124</v>
       </c>
       <c r="D346" s="24" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="E346" s="24" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="F346" s="25" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A347" s="47"/>
       <c r="B347" s="46"/>
       <c r="C347" s="23" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="D347" s="24" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="E347" s="24" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="F347" s="25" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A348" s="47"/>
       <c r="B348" s="46"/>
       <c r="C348" s="23" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="D348" s="24" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="E348" s="24" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="F348" s="25" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="47"/>
       <c r="B349" s="46"/>
       <c r="C349" s="23" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="D349" s="24" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="E349" s="24" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="F349" s="25" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="47"/>
       <c r="B350" s="46"/>
       <c r="C350" s="23" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="D350" s="24" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="E350" s="24" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="F350" s="25" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="57"/>
       <c r="B351" s="56"/>
       <c r="C351" s="15" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="D351" s="16" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="F351" s="28" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A352" s="59"/>
       <c r="B352" s="60" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="C352" s="18" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="D352" s="19" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="E352" s="19" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="F352" s="20" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A353" s="47"/>
       <c r="B353" s="46"/>
       <c r="C353" s="23" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D353" s="24" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="E353" s="24" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="F353" s="25" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="61"/>
       <c r="B354" s="33"/>
       <c r="C354" s="38" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="D354" s="34" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="E354" s="34" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="F354" s="35" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -10573,19 +10573,19 @@
         <v>129</v>
       </c>
       <c r="B355" s="23" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="C355" s="23">
         <v>13</v>
       </c>
       <c r="D355" s="24" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="E355" s="24" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="F355" s="25" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10595,31 +10595,31 @@
         <v>16</v>
       </c>
       <c r="D356" s="24" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="E356" s="24" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="F356" s="25" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A357" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B357" s="23"/>
       <c r="C357" s="23">
         <v>21</v>
       </c>
       <c r="D357" s="24" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="E357" s="24" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="F357" s="25" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -10629,13 +10629,13 @@
         <v>24</v>
       </c>
       <c r="D358" s="24" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="E358" s="24" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="F358" s="25" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10645,13 +10645,13 @@
         <v>27</v>
       </c>
       <c r="D359" s="24" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="E359" s="24" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="F359" s="25" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10663,13 +10663,13 @@
         <v>36</v>
       </c>
       <c r="D360" s="24" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="E360" s="24" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="F360" s="25" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10679,13 +10679,13 @@
         <v>39</v>
       </c>
       <c r="D361" s="24" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="E361" s="24" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="F361" s="25" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10695,13 +10695,13 @@
         <v>42</v>
       </c>
       <c r="D362" s="24" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="E362" s="24" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="F362" s="25" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10711,31 +10711,31 @@
         <v>45</v>
       </c>
       <c r="D363" s="24" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="E363" s="24" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="F363" s="25" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B364" s="23"/>
       <c r="C364" s="23">
         <v>50</v>
       </c>
       <c r="D364" s="24" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="E364" s="24" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="F364" s="25" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -10747,13 +10747,13 @@
         <v>55</v>
       </c>
       <c r="D365" s="24" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="E365" s="24" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="F365" s="25" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -10763,31 +10763,31 @@
         <v>63</v>
       </c>
       <c r="D366" s="24" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="E366" s="24" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="F366" s="25" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="41" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B367" s="23"/>
       <c r="C367" s="23">
         <v>72</v>
       </c>
       <c r="D367" s="24" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="E367" s="24" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="F367" s="25" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10797,31 +10797,31 @@
         <v>112</v>
       </c>
       <c r="D368" s="24" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="E368" s="24" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="F368" s="25" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="41" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="B369" s="23"/>
       <c r="C369" s="23">
         <v>192</v>
       </c>
       <c r="D369" s="24" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="E369" s="24" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="F369" s="25" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -10831,13 +10831,13 @@
         <v>199</v>
       </c>
       <c r="D370" s="24" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="E370" s="24" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="F370" s="25" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10847,13 +10847,13 @@
         <v>202</v>
       </c>
       <c r="D371" s="24" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="E371" s="24" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="F371" s="25" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10863,13 +10863,13 @@
         <v>205</v>
       </c>
       <c r="D372" s="24" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="E372" s="24" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="F372" s="25" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10879,13 +10879,13 @@
         <v>208</v>
       </c>
       <c r="D373" s="24" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="E373" s="24" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="F373" s="25" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10895,13 +10895,13 @@
         <v>211</v>
       </c>
       <c r="D374" s="24" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="E374" s="24" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="F374" s="25" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10911,13 +10911,13 @@
         <v>214</v>
       </c>
       <c r="D375" s="24" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="E375" s="24" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="F375" s="25" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10927,13 +10927,13 @@
         <v>227</v>
       </c>
       <c r="D376" s="24" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="E376" s="24" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="F376" s="25" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10943,13 +10943,13 @@
         <v>240</v>
       </c>
       <c r="D377" s="24" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="E377" s="24" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="F377" s="25" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10959,13 +10959,13 @@
         <v>245</v>
       </c>
       <c r="D378" s="24" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="E378" s="24" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="F378" s="25" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10975,13 +10975,13 @@
         <v>248</v>
       </c>
       <c r="D379" s="24" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="E379" s="24" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="F379" s="25" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10991,13 +10991,13 @@
         <v>251</v>
       </c>
       <c r="D380" s="24" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="E380" s="24" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="F380" s="25" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11007,13 +11007,13 @@
         <v>263</v>
       </c>
       <c r="D381" s="24" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="E381" s="24" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="F381" s="25" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11023,13 +11023,13 @@
         <v>266</v>
       </c>
       <c r="D382" s="24" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="E382" s="24" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="F382" s="25" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -11039,13 +11039,13 @@
         <v>269</v>
       </c>
       <c r="D383" s="34" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="E383" s="34" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="F383" s="35" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
   </sheetData>
